--- a/Linux/DeviceDrivers/Document(important)/04.阻塞与等待队列.xlsx
+++ b/Linux/DeviceDrivers/Document(important)/04.阻塞与等待队列.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85132197-ECD0-4243-8CEF-67771E818FF3}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4474694-0D76-4403-874C-F8C9577B393A}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" tabRatio="639" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" tabRatio="639" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="wait_hc" sheetId="16" r:id="rId1"/>
@@ -13,7 +13,7 @@
     <sheet name="completion_hc" sheetId="10" r:id="rId3"/>
     <sheet name="completion_sam" sheetId="15" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="125725" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="118">
   <si>
     <r>
       <rPr>
@@ -568,6 +568,24 @@
   </si>
   <si>
     <t>wake_up_interruptible(&amp;key_waitq);</t>
+  </si>
+  <si>
+    <t>#define DEFINE_WAIT_FUNC(name, function)                    \</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    wait_queue_t name = {                                   \</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        .private      = current,                            \</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        .func         = function,                           \</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        .task_list    = LIST_HEAD_INIT((name).task_list),   \</t>
+  </si>
+  <si>
+    <t>#define DEFINE_WAIT(name) DEFINE_WAIT_FUNC(name, autoremove_wake_function)</t>
   </si>
 </sst>
 </file>
@@ -967,10 +985,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B66A59A7-A6AA-48D9-BD03-C7D94461DFDA}">
-  <dimension ref="B1:E36"/>
+  <dimension ref="B1:E44"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C38" sqref="C38"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12" x14ac:dyDescent="0.25"/>
@@ -1009,132 +1027,188 @@
       </c>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="C5" s="1" t="s">
+      <c r="C5" s="3" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="C6" s="1" t="s">
+      <c r="C6" s="4" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="C7" s="1" t="s">
+      <c r="C7" s="4" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="C8" s="1" t="s">
+      <c r="C8" s="4" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="C9" s="1" t="s">
+      <c r="C9" s="4" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="C10" s="1" t="s">
+      <c r="C10" s="4" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="C11" s="1" t="s">
+      <c r="C11" s="4" t="s">
         <v>48</v>
       </c>
     </row>
+    <row r="12" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C12" s="4"/>
+    </row>
     <row r="13" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="C13" s="1" t="s">
+      <c r="C13" s="4" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="C14" s="1" t="s">
+      <c r="C14" s="4" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="15" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="C15" s="1" t="s">
+      <c r="C15" s="4" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="16" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="C16" s="1" t="s">
+      <c r="C16" s="4" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="17" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C17" s="1" t="s">
+      <c r="C17" s="4" t="s">
         <v>52</v>
       </c>
     </row>
+    <row r="18" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C18" s="4"/>
+    </row>
     <row r="19" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C19" s="1" t="s">
+      <c r="C19" s="4" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="20" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C20" s="4" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="21" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C21" s="4" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="22" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C22" s="4" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="23" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C23" s="4" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="24" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C24" s="4" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="25" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C25" s="4" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="26" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C26" s="4"/>
+    </row>
+    <row r="27" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C27" s="4" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="20" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C20" s="1" t="s">
+    <row r="28" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C28" s="4" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="22" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C22" s="1" t="s">
+    <row r="29" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C29" s="4"/>
+    </row>
+    <row r="30" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C30" s="4" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="23" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C23" s="1" t="s">
+    <row r="31" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C31" s="4" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="24" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C24" s="1" t="s">
+    <row r="32" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C32" s="4" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="26" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C26" s="1" t="s">
+    <row r="33" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C33" s="4"/>
+    </row>
+    <row r="34" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C34" s="4" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="27" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C27" s="1" t="s">
+    <row r="35" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C35" s="4" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="28" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C28" s="1" t="s">
+    <row r="36" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C36" s="4" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="30" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C30" s="1" t="s">
+    <row r="37" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C37" s="4"/>
+    </row>
+    <row r="38" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C38" s="4" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="31" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C31" s="1" t="s">
+    <row r="39" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C39" s="4" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="32" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C32" s="1" t="s">
+    <row r="40" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C40" s="4" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="33" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C33" s="1" t="s">
+    <row r="41" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C41" s="4" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="35" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C35" s="1" t="s">
+    <row r="42" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C42" s="4"/>
+    </row>
+    <row r="43" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C43" s="4" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="36" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C36" s="1" t="s">
+    <row r="44" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C44" s="5" t="s">
         <v>100</v>
       </c>
     </row>
@@ -1150,7 +1224,7 @@
   <dimension ref="B2:D15"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="P20" sqref="P20"/>
+      <selection activeCell="M10" sqref="M10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.77734375" defaultRowHeight="12" x14ac:dyDescent="0.25"/>
@@ -1603,7 +1677,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7CBB8AE-1332-453F-AFBC-64304710A1A5}">
   <dimension ref="B2:E15"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="S32" sqref="S32"/>
     </sheetView>
   </sheetViews>
